--- a/biology/Botanique/Ulmus_laciniata/Ulmus_laciniata.xlsx
+++ b/biology/Botanique/Ulmus_laciniata/Ulmus_laciniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulmus laciniata est une espèce d'arbres à feuilles caduques de la famille des Ulmaceae, originaire des forêts encaissées et humides du Japon, de la Corée, du Nord de la Chine, de l'Est de la Sibérie et de Sakhaline, et qui pousse aux côtés de Cercidiphyllum japonicum, Aesculus turbinata et Pterocarya rhoifolia[1],[2],[3] à des altitudes de 700 à 2 200 m, bien que parfois plus basses sous des latitudes plus septentrionales, notamment à Hokkaido.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulmus laciniata est une espèce d'arbres à feuilles caduques de la famille des Ulmaceae, originaire des forêts encaissées et humides du Japon, de la Corée, du Nord de la Chine, de l'Est de la Sibérie et de Sakhaline, et qui pousse aux côtés de Cercidiphyllum japonicum, Aesculus turbinata et Pterocarya rhoifolia à des altitudes de 700 à 2 200 m, bien que parfois plus basses sous des latitudes plus septentrionales, notamment à Hokkaido.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est originaire de Chine, de Corée du Nord, de Corée du Sud, du Japon et de la Russie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est originaire de Chine, de Corée du Nord, de Corée du Sud, du Japon et de la Russie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulmus laciniata se distingue principalement par ses feuilles, souvent régulièrement incisées pour former entre trois et sept lobes apicaux[5]. Les feuilles cuspidées sont normalement une caractéristique des arbres adultes, qui peuvent également porter des feuilles sans cette caractéristique[6]. L'arbre peut atteindre une hauteur de 27 m, malgré un tronc ne dépassant que rarement les 50 cm de diamètre à hauteur de poitrine. L'écorce des jeunes arbres est foncée, gris-brun, s'exfoliant en flocons, mais se fissure peu profondément avec la maturité. Les rameaux non ailés[Quoi ?] portent des feuilles laciniées généralement obtriangulaires de 18 cm de longueur[7]. Les fleurs apétales pollinisées par le vent sont produites sur les pousses de la deuxième année en avril (mars en Angleterre), suivies en mai par des pousses elliptiques. Les fruits sont des samares légèrement entaillés au sommet[8],[9],[10]. La croissance est modérée ; le tronc d'un spécimen planté sur un sol fertile et humide en permanence dans le Sud du Hampshire, au Royaume-Uni, a augmenté de diamètre à hauteur de poitrine d'une moyenne modeste de 1,7 cm par an[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulmus laciniata se distingue principalement par ses feuilles, souvent régulièrement incisées pour former entre trois et sept lobes apicaux. Les feuilles cuspidées sont normalement une caractéristique des arbres adultes, qui peuvent également porter des feuilles sans cette caractéristique. L'arbre peut atteindre une hauteur de 27 m, malgré un tronc ne dépassant que rarement les 50 cm de diamètre à hauteur de poitrine. L'écorce des jeunes arbres est foncée, gris-brun, s'exfoliant en flocons, mais se fissure peu profondément avec la maturité. Les rameaux non ailés[Quoi ?] portent des feuilles laciniées généralement obtriangulaires de 18 cm de longueur. Les fleurs apétales pollinisées par le vent sont produites sur les pousses de la deuxième année en avril (mars en Angleterre), suivies en mai par des pousses elliptiques. Les fruits sont des samares légèrement entaillés au sommet. La croissance est modérée ; le tronc d'un spécimen planté sur un sol fertile et humide en permanence dans le Sud du Hampshire, au Royaume-Uni, a augmenté de diamètre à hauteur de poitrine d'une moyenne modeste de 1,7 cm par an.
 			Feuillage durant l'été.
 			Samare.
 			Brindilles.
@@ -577,9 +593,11 @@
           <t>Ravageurs et maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les populations naturelles de U. laciniata n'ont qu'une résistance marginale à la maladie hollandaise de l'orme due à Ophiostoma ulmi[12], inférieure à celle de l'Orme du Japon[13]. De plus, lors d'essais menés en Italie et aux États-Unis[14], U. laciniata a été gravement endommagé par les chrysomèles de l'orme Xanthogaleruca luteola, en effet, en Italie, des traitements chimiques étaient nécessaires pour assurer la survie des arbres, contrairement à ses compatriotes U. parvifolia et U. davidiane var. japonica qui ont survécu. L'espèce est également sensible à la graphiose[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations naturelles de U. laciniata n'ont qu'une résistance marginale à la maladie hollandaise de l'orme due à Ophiostoma ulmi, inférieure à celle de l'Orme du Japon. De plus, lors d'essais menés en Italie et aux États-Unis, U. laciniata a été gravement endommagé par les chrysomèles de l'orme Xanthogaleruca luteola, en effet, en Italie, des traitements chimiques étaient nécessaires pour assurer la survie des arbres, contrairement à ses compatriotes U. parvifolia et U. davidiane var. japonica qui ont survécu. L'espèce est également sensible à la graphiose.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été introduite en Occident en 1905, mais reste rare en culture. Un spécimen, obtenu à la pépinière de Léon Chenault (en) à Orléans, se trouvait dans l'arboretum du Ryston Hall, dans le comté de Norfolk en Angleterre[16], au début du XXe siècle[17]. L'arbre a été évalué de manière approfondie aux Pays-Bas dans les années 1950 comme un source potentielle de gènes antifongiques à utiliser dans le programme néerlandais d'hybridation de l'orme, mais s'est avéré intolérant à toutes les conditions, sauf les plus abritées et humides[18].
-Des arbres plantés en Angleterre dans les jardins de Sir Harold Hillier (dont le dernier spécimen a disparu en 2007) et dans le cadre des essais d'ormes de Butterfly Conservation à Great Fontley ont confirmé l'évaluation néerlandaise[11]. Les arbres issus de graines commencent à fleurir au cours de leur huitième année. Le programme néerlandais de sélection de l'orme a révélé que l'arbre a un degré d'autofertilité relativement élevé (viabilité des graines de 39 %)[19]. Le bouturage de cette espèce est très difficile, même réalisé en maintenant une atmosphère humide, les boutures, bien que s'enracinant souvent, ne parviennent pas à faire de nouvelles feuilles. Toutefois, l'arbre a été multiplié et commercialisé au Royaume-Uni par la pépinière Hillier &amp; Sons, à Winchester (Royaume-Uni), à partir de 1948, mais les ventes ont été très faibles, avec seulement trois ventes entre 1962 et 1977[20],[21].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été introduite en Occident en 1905, mais reste rare en culture. Un spécimen, obtenu à la pépinière de Léon Chenault (en) à Orléans, se trouvait dans l'arboretum du Ryston Hall, dans le comté de Norfolk en Angleterre, au début du XXe siècle. L'arbre a été évalué de manière approfondie aux Pays-Bas dans les années 1950 comme un source potentielle de gènes antifongiques à utiliser dans le programme néerlandais d'hybridation de l'orme, mais s'est avéré intolérant à toutes les conditions, sauf les plus abritées et humides.
+Des arbres plantés en Angleterre dans les jardins de Sir Harold Hillier (dont le dernier spécimen a disparu en 2007) et dans le cadre des essais d'ormes de Butterfly Conservation à Great Fontley ont confirmé l'évaluation néerlandaise. Les arbres issus de graines commencent à fleurir au cours de leur huitième année. Le programme néerlandais de sélection de l'orme a révélé que l'arbre a un degré d'autofertilité relativement élevé (viabilité des graines de 39 %). Le bouturage de cette espèce est très difficile, même réalisé en maintenant une atmosphère humide, les boutures, bien que s'enracinant souvent, ne parviennent pas à faire de nouvelles feuilles. Toutefois, l'arbre a été multiplié et commercialisé au Royaume-Uni par la pépinière Hillier &amp; Sons, à Winchester (Royaume-Uni), à partir de 1948, mais les ventes ont été très faibles, avec seulement trois ventes entre 1962 et 1977,.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Rarement cultivé en Occident et plutôt sensible à la graphiose, il n'y a que peu, voire aucun, arbres remarquables en culture. Le champion original du registre des arbres des îles britanniques planté dans les Sir Harold Hillier Gardens, Romsey, en 1982, est mort de graphiose 27 ans plus tard. Les arbres les plus anciens connus au Royaume-Uni, plantés en 1981, se trouvent à l'Harcourt Arboretum dans l'Oxfordshire[réf. nécessaire].
 </t>
@@ -671,9 +693,11 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une variété putative a été reconnue par Rehder : Ulmus laciniata var. nikkoensis, découvert comme semis près du lac Chūzenji, près de Nikkō au Japon, et obtenu par l'Arboretum Arnold en 1905[13]. La taxonomie de l'arbre reste un sujet de controverse, et a été considérée comme peut-être un hybride de U. laciniata et U. davidiane var. japonica. Cependant, lors d'expériences de croisement menées à l'Arnold Arboretum dans les années 1970, U. laciniata, une espèce protogyne, s'est avérée incompatible avec U. davidiane var. japonica, qui est protandre[22].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une variété putative a été reconnue par Rehder : Ulmus laciniata var. nikkoensis, découvert comme semis près du lac Chūzenji, près de Nikkō au Japon, et obtenu par l'Arboretum Arnold en 1905. La taxonomie de l'arbre reste un sujet de controverse, et a été considérée comme peut-être un hybride de U. laciniata et U. davidiane var. japonica. Cependant, lors d'expériences de croisement menées à l'Arnold Arboretum dans les années 1970, U. laciniata, une espèce protogyne, s'est avérée incompatible avec U. davidiane var. japonica, qui est protandre.
 </t>
         </is>
       </c>
@@ -702,9 +726,11 @@
           <t>Cultivars hybrides</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs cultivars hybrides ont été cultivés dans le cadre du programme de sélection hollandais de l'orme à l'Institut de recherche Dorschkamp pour la foresterie et l'aménagement paysager à Wageningen, en croisant l'espèce avec des hybrides de U. wallichiana et U. minor pour produire le clone no.560, qui à son tour a été croisé avec le clone 720 (lui-même un croisement complexe impliquant U. glabra, U. minor, U. wallichiana et U. pumila  pour produire le clone 1234. Aucun de ces clones n'a été commercialisé[18].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs cultivars hybrides ont été cultivés dans le cadre du programme de sélection hollandais de l'orme à l'Institut de recherche Dorschkamp pour la foresterie et l'aménagement paysager à Wageningen, en croisant l'espèce avec des hybrides de U. wallichiana et U. minor pour produire le clone no.560, qui à son tour a été croisé avec le clone 720 (lui-même un croisement complexe impliquant U. glabra, U. minor, U. wallichiana et U. pumila  pour produire le clone 1234. Aucun de ces clones n'a été commercialisé.
 </t>
         </is>
       </c>
@@ -733,11 +759,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ulmus laciniata (Herder) Mayr ex Schwapp.[23]. Ce taxon aurait d'abord été considéré comme une forme de Ulmus montana sous le basionyme Ulmus montana f. laciniata Herder[23].
-L'arbre est similaire à Ulmus glabra et a été traité comme tel à l'origine par Gysbertus Houtzagers et Augustine Henry[6]. Il s'est vu accorder plus tard un statut d'espèce à part entière, en grande partie en raison de l'énorme distance séparant son aire de répartition par rapport à celle d’U. glabra. Cette dernière espèce s'étend à travers l'Europe jusqu'à l'Oural, à plusieurs milliers de kilomètres de l'aire d’U. laciniata située en Extrême-Orient. Richard Hook Richens (1983), cependant, considérait U. laciniata comme équivalent à Ulmus glabra][24].
-Ulmus laciniata a pour synonymes[23] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ulmus laciniata (Herder) Mayr ex Schwapp.. Ce taxon aurait d'abord été considéré comme une forme de Ulmus montana sous le basionyme Ulmus montana f. laciniata Herder.
+L'arbre est similaire à Ulmus glabra et a été traité comme tel à l'origine par Gysbertus Houtzagers et Augustine Henry. Il s'est vu accorder plus tard un statut d'espèce à part entière, en grande partie en raison de l'énorme distance séparant son aire de répartition par rapport à celle d’U. glabra. Cette dernière espèce s'étend à travers l'Europe jusqu'à l'Oural, à plusieurs milliers de kilomètres de l'aire d’U. laciniata située en Extrême-Orient. Richard Hook Richens (1983), cependant, considérait U. laciniata comme équivalent à Ulmus glabra].
+Ulmus laciniata a pour synonymes :
 Ulmus laciniata f. holophylla Nakai
 Ulmus laciniata var. nikkoensis Rehder
 Ulmus laciniata (Trautv.) Mayr
